--- a/src/main/resources/testdata/Check_DeleteButton_Disabled_RNAiNomEvidence.xlsx
+++ b/src/main/resources/testdata/Check_DeleteButton_Disabled_RNAiNomEvidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="1665" windowWidth="12285" windowHeight="3990"/>
+    <workbookView xWindow="8025" yWindow="1725" windowWidth="12285" windowHeight="3930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
